--- a/dataset/Grab/datasetgrab7.xlsx
+++ b/dataset/Grab/datasetgrab7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AnalisisSentimen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AnalisisSentimen\dataset\Grab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11066240-9212-42F8-8385-DC21E3F37900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884A1BCE-F107-4306-BF0D-9FA257737E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
   <si>
     <t>created_at</t>
   </si>
@@ -31,49 +31,16 @@
     <t>text</t>
   </si>
   <si>
-    <t>Lasseie</t>
-  </si>
-  <si>
-    <t>RT @zeoyeony: help rt thank youu!!
-helloo (´∩｡• ᵕ •｡∩`) 
-aku ada layout ready stock basic moodboard bg dark, gg, ulzzang dan faceless niiy…</t>
-  </si>
-  <si>
-    <t>smemangat</t>
-  </si>
-  <si>
-    <t>RT @foldezr: twitto dwellers, help RT pls? ૮₍ ˃ ⤙ ˂ ₎ა
-🐇 :  jel ada layout ready stock ulzzang nya nih! 🌷 get ava png only 💗 bisa diklaim…</t>
-  </si>
-  <si>
     <t>_ninds</t>
   </si>
   <si>
     <t>@GrabID mending bangkrut aja si, ga jelas pdjl udah top up ovo. di ovo udah masuk tapi di grab ovo cash nya 0 terus👎🏻</t>
   </si>
   <si>
-    <t>nasyzmrni</t>
-  </si>
-  <si>
-    <t>RT @danialtsu: Harini, @ShopeeMY ada voucher best utk korang jimat bayar bil telco tau! Best giler weih bila tengok bil alwaysssss negative…</t>
-  </si>
-  <si>
     <t>th1sun</t>
   </si>
   <si>
     <t>nitip tas ke grab, biar bisa pura pura keluar alias bolos https://t.co/gA35iP9873</t>
-  </si>
-  <si>
-    <t>arumanniis</t>
-  </si>
-  <si>
-    <t>tjauhi</t>
-  </si>
-  <si>
-    <t>konammi</t>
-  </si>
-  <si>
-    <t>bliaz</t>
   </si>
   <si>
     <t>rahsucixx</t>
@@ -90,19 +57,10 @@
 cantiknya kan thea blouse ni ? tengok tu colour dia ish semua comel sangat ! kakak i and…</t>
   </si>
   <si>
-    <t>48O81</t>
-  </si>
-  <si>
-    <t>63O37</t>
-  </si>
-  <si>
     <t>matchchaaaaaa</t>
   </si>
   <si>
     <t>Dari drama sama kang grab nd gojek, dr pagi kena tegor atasan, mulut pait, mual, lemes kaga udah-udah, siku kepento… https://t.co/ZtWr0ujvAK</t>
-  </si>
-  <si>
-    <t>loafsjaemm</t>
   </si>
   <si>
     <t>GRAB mending bangkrut aja si, g*bl*k banget👎🏻👎🏻</t>
@@ -127,12 +85,6 @@
     <t>ditolak 8 grab, nangisss</t>
   </si>
   <si>
-    <t>farhahdean</t>
-  </si>
-  <si>
-    <t>RT @syzwnizk: Exactly this unit. Can choose whether want balcony or no balcony. Client haritu dia tak kisah dapat balcony atau tak, janji d…</t>
-  </si>
-  <si>
     <t>onyourd__ifa</t>
   </si>
   <si>
@@ -145,13 +97,6 @@
     <t>@indomyfess iyaaa, aku pake promo dr grab lumayan nder 39.100 buat setaun</t>
   </si>
   <si>
-    <t>hazwanhfiz</t>
-  </si>
-  <si>
-    <t>Berpuluh kali respek bagi mereka yang masih bertahan dalam bidang F&amp;amp;B ni.
-Nak hadap karenah pelanggan, berlari ke… https://t.co/a8wNv3mBrG</t>
-  </si>
-  <si>
     <t>natianafurrr</t>
   </si>
   <si>
@@ -159,9 +104,6 @@
   </si>
   <si>
     <t>windidiah</t>
-  </si>
-  <si>
-    <t>RT @windidiah: ASIK BANGET. SEKARANG DRIVER GRAB BISA "CHARGE" CUSTOMER TANPA BILANG TERLEBIH DAHULU 😍🤩 https://t.co/B0OaeDToPI</t>
   </si>
   <si>
     <t>ASIK BANGET. SEKARANG DRIVER GRAB BISA "CHARGE" CUSTOMER TANPA BILANG TERLEBIH DAHULU 😍🤩 https://t.co/B0OaeDToPI</t>
@@ -174,21 +116,6 @@
 Untung kemarin lgsung beli dapet promo grab☺️</t>
   </si>
   <si>
-    <t>enchantedSiti</t>
-  </si>
-  <si>
-    <t>RT @CT_Voter: Alhamdulillah, berkat kesabaran. My wait was worth it. At last managed to grab Siti Nurhaliza concert’s ticket. Terima kasih…</t>
-  </si>
-  <si>
-    <t>gypewey</t>
-  </si>
-  <si>
-    <t>letupss</t>
-  </si>
-  <si>
-    <t>Adoi mahal plk grab time2 ceni</t>
-  </si>
-  <si>
     <t>Catwoman__10</t>
   </si>
   <si>
@@ -201,96 +128,28 @@
     <t>Ada order grab tapi kesian pulak kat rider nak hantar hujan2 ni tapi lapau</t>
   </si>
   <si>
-    <t>akuaccy</t>
-  </si>
-  <si>
-    <t>「 GARNIER Serum Mask Sakura Glow 」
-💰 Rp. 13,000
-🏷 Yogyakarta
-🏷 J&amp;amp;T, GOSEND, GRAB INSTANT
-🏷 BCA, Shopeepay, Gopay,… https://t.co/2msQgB5u2Q</t>
-  </si>
-  <si>
-    <t>chuurabbitkim</t>
-  </si>
-  <si>
-    <t>RT @GrabID: 10 TAHUN GRAB BERSAMA INDONESIA, AKU MAU BAGIIN 1 IPHONE 13 MINI &amp;amp; GRABGIFTS TOTAL 2JUTA!
-Caranya:
--RT &amp;amp; like tweet ini
--Reply…</t>
-  </si>
-  <si>
-    <t>dinnamis</t>
-  </si>
-  <si>
     <t>worksfess</t>
   </si>
   <si>
     <t>Work! Di sini ada yg pulang kerja atau berangkat kerja nyambi jadi gojek atau grab? Penghasilannya worth ga? Please… https://t.co/xgGtEmEkHM</t>
   </si>
   <si>
-    <t>artssera</t>
-  </si>
-  <si>
     <t>rizkinta_sania</t>
   </si>
   <si>
     <t>@sbmptnfess pernahh....  sama semua teman, grab, shopeefood, kita bisa, dan guru² juga dichatin sblmnya juga minta… https://t.co/8iVM7Z25Dx</t>
   </si>
   <si>
-    <t>kaykaymayzing</t>
-  </si>
-  <si>
-    <t>RT @shanteksigadis: ❤️𝙃𝙀𝙇𝙇𝙊 𝙉𝙐𝘿𝙀 𝙇𝙊𝙑𝙀𝙍❤️
-Semua color ni memang wajib ada untuk semua ladies diluar sana😙
-Grab now for only RM35! 
-Which…</t>
-  </si>
-  <si>
     <t>myaltri</t>
   </si>
   <si>
     <t>@collegemenfess Ada angkot, gojek, grab, maxim :)</t>
   </si>
   <si>
-    <t>khariesmayani</t>
-  </si>
-  <si>
-    <t>gcuih</t>
-  </si>
-  <si>
-    <t>wamgnicholas</t>
-  </si>
-  <si>
     <t>loliggen</t>
   </si>
   <si>
     <t>agak galucu klo nangis sambil dibonceng abang grab</t>
-  </si>
-  <si>
-    <t>mouncream</t>
-  </si>
-  <si>
-    <t>kambingbakarsyu</t>
-  </si>
-  <si>
-    <t>uwoobae</t>
-  </si>
-  <si>
-    <t>shanteksigadis</t>
-  </si>
-  <si>
-    <t>ya_aloya</t>
-  </si>
-  <si>
-    <t>RT @intanaina10: Sambal Hitam Mak Engku
-Resepi asal dari Raub Pahang
-Makan dengan nasi panas2 memang enak 😋 Bertambah2 nasi
-RM 12-1pek
-1…</t>
-  </si>
-  <si>
-    <t>chifsyu</t>
   </si>
   <si>
     <t>sleepinGorj</t>
@@ -312,13 +171,6 @@
     <t>grab lagi grab terus bosen https://t.co/TxpI9PH09G</t>
   </si>
   <si>
-    <t>dermalenegroup</t>
-  </si>
-  <si>
-    <t>😫𝟓𝟎% 𝐎𝐅𝐅 𝐒𝐄𝐌𝐏𝐄𝐍𝐀 𝐏𝐄𝐌𝐁𝐔𝐊𝐀𝐀𝐍 𝐁𝐑𝐀𝐍𝐂𝐇 𝐁𝐀𝐑𝐔 𝐃𝐈 𝐒𝐄𝐋𝐀𝐓𝐀𝐍😫
-Jadi, buat apa lagi nak tangguh-tangguh ? Dermalene nak bagi 50%… https://t.co/1PszuYiyGr</t>
-  </si>
-  <si>
     <t>itznanuraz</t>
   </si>
   <si>
@@ -332,27 +184,12 @@
     <t>@tanyakanrl Dia driver grab di planet lain nder, tepatnya exo planet, tapi sekarang dia off ngegrab soalnya masih ngabdi ke negara</t>
   </si>
   <si>
-    <t>fadhilanurfa1</t>
-  </si>
-  <si>
-    <t>Wts 3 tiket waktu indonesia berdansa ( wib ) 
-Grab it fast
-Reasonable price</t>
-  </si>
-  <si>
     <t>twmuggzy</t>
   </si>
   <si>
     <t>Sbb belajar tggi pun gaji takat tu je, buat grab masyuk lagi. https://t.co/Xv2Y34I9to</t>
   </si>
   <si>
-    <t>casualpantshub</t>
-  </si>
-  <si>
-    <t>thea blouse combo deals🧚🏻‍♀️
-cantiknya kan thea blouse ni ? tengok tu colour dia ish semua comel sangat ! kakak i… https://t.co/rMkD82BghN</t>
-  </si>
-  <si>
     <t>hourlyfunk</t>
   </si>
   <si>
@@ -371,12 +208,6 @@
     <t>dengerin playlist sobbing pas sunset trs bengong d grab sangat amat tidak direkomendasikan😭🖕</t>
   </si>
   <si>
-    <t>liddolshop</t>
-  </si>
-  <si>
-    <t>RT @SyahidahDarmawi: Bestnya kan bila skin x kusam,nampak healthy &amp;amp; glowing.Lepas tu bibir pun herlok.Tak susah pun just invest dekat 2 ben…</t>
-  </si>
-  <si>
     <t>agsrhmd</t>
   </si>
   <si>
@@ -392,9 +223,6 @@
     <t>@GrabID So happy pake grab karna aku pelanggan lama jadi selalu ada diskon, ibu ku kalo mnta tolong psenin grabbike… https://t.co/r0ZwF5rW8m</t>
   </si>
   <si>
-    <t>yilyuwins</t>
-  </si>
-  <si>
     <t>IOMIndonesia</t>
   </si>
   <si>
@@ -422,21 +250,6 @@
     <t>Pastu apa masalahnya kalau naik grab? Guna duit kau ke eh? Hahahah tak faham tolong explain 😂</t>
   </si>
   <si>
-    <t>awntique</t>
-  </si>
-  <si>
-    <t>Ariyanto_Antho</t>
-  </si>
-  <si>
-    <t>saaangyaira</t>
-  </si>
-  <si>
-    <t>RT @cursedkidd: *naik Grab*
-udh?
-[mnunduk] ak lgi ksl
-[tsenyum] gkpp dik,klo km diselingkuhin tu mreka yg rugi dh jhatin cwo zodiak leo…</t>
-  </si>
-  <si>
     <t>wlfiechan3</t>
   </si>
   <si>
@@ -491,31 +304,12 @@
     <t>@aariichaaaaan @ohyeshsunti Betul doh grab skrng bapak mahal</t>
   </si>
   <si>
-    <t>Luckyibae</t>
-  </si>
-  <si>
     <t>jengyangist</t>
   </si>
   <si>
     <t>@sbmptnfess iyaaa bener! sampe sopir grab juga gue mintain doa awikwok</t>
   </si>
   <si>
-    <t>GrabID</t>
-  </si>
-  <si>
-    <t>☎️ Panggilan kepada fans berat Liga Inggris ☎️
-Siap-siap yuk ramein musim 2022/23 bareng paket Vidio Diamond setah… https://t.co/JPckEcDI7b</t>
-  </si>
-  <si>
-    <t>seeunikeu</t>
-  </si>
-  <si>
-    <t>29O57</t>
-  </si>
-  <si>
-    <t>ikxemen</t>
-  </si>
-  <si>
     <t>mrsarchuleta_28</t>
   </si>
   <si>
@@ -526,12 +320,6 @@
   </si>
   <si>
     <t>engga ada di gojek grab</t>
-  </si>
-  <si>
-    <t>auniomr</t>
-  </si>
-  <si>
-    <t>RT @syeraheyyy: @petronasmercha1 Hi sesiapa yg TER beli super smash white size M and nak jual balik. Let me know okey. Tak sempat nak grab😭😭</t>
   </si>
 </sst>
 </file>
@@ -600,7 +388,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -898,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -926,29 +725,13 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -961,22 +744,14 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -986,10 +761,10 @@
         <v>44764</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1000,10 +775,10 @@
         <v>44764</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1014,10 +789,10 @@
         <v>44764</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1028,10 +803,10 @@
         <v>44764</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1042,10 +817,10 @@
         <v>44764</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1056,10 +831,10 @@
         <v>44764</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1073,7 +848,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1084,25 +859,17 @@
         <v>44764</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1112,10 +879,10 @@
         <v>44764</v>
       </c>
       <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1126,25 +893,17 @@
         <v>44764</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1154,25 +913,17 @@
         <v>44764</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1182,10 +933,10 @@
         <v>44764</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1196,39 +947,23 @@
         <v>44764</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1238,10 +973,10 @@
         <v>44764</v>
       </c>
       <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
         <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1252,39 +987,23 @@
         <v>44764</v>
       </c>
       <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
         <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1294,10 +1013,10 @@
         <v>44764</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1308,25 +1027,17 @@
         <v>44764</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -1336,10 +1047,10 @@
         <v>44764</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1350,25 +1061,17 @@
         <v>44764</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -1378,10 +1081,10 @@
         <v>44764</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1392,10 +1095,10 @@
         <v>44764</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1406,25 +1109,17 @@
         <v>44764</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" t="s">
-        <v>56</v>
-      </c>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -1434,10 +1129,10 @@
         <v>44764</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1448,25 +1143,17 @@
         <v>44764</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -1476,25 +1163,17 @@
         <v>44764</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -1504,10 +1183,10 @@
         <v>44764</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1518,10 +1197,10 @@
         <v>44764</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1532,25 +1211,17 @@
         <v>44764</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" t="s">
-        <v>60</v>
-      </c>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
@@ -1560,10 +1231,10 @@
         <v>44764</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1574,10 +1245,10 @@
         <v>44764</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1588,10 +1259,10 @@
         <v>44764</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1602,10 +1273,10 @@
         <v>44764</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1616,10 +1287,10 @@
         <v>44764</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1630,10 +1301,10 @@
         <v>44764</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1644,10 +1315,10 @@
         <v>44764</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1658,25 +1329,17 @@
         <v>44764</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C55" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" t="s">
-        <v>6</v>
-      </c>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
@@ -1686,10 +1349,10 @@
         <v>44764</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1700,10 +1363,10 @@
         <v>44764</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1714,10 +1377,10 @@
         <v>44764</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1728,10 +1391,10 @@
         <v>44764</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1742,10 +1405,10 @@
         <v>44764</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1756,10 +1419,10 @@
         <v>44764</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1770,10 +1433,10 @@
         <v>44764</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D62" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1784,10 +1447,10 @@
         <v>44764</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1798,10 +1461,10 @@
         <v>44764</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D64" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1812,25 +1475,17 @@
         <v>44764</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D65" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" t="s">
-        <v>100</v>
-      </c>
+      <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
@@ -1840,10 +1495,10 @@
         <v>44764</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1854,475 +1509,22 @@
         <v>44764</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C69" t="s">
-        <v>105</v>
-      </c>
-      <c r="D69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C70" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C71" t="s">
-        <v>109</v>
-      </c>
-      <c r="D71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C72" t="s">
-        <v>111</v>
-      </c>
-      <c r="D72" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C73" t="s">
-        <v>103</v>
-      </c>
-      <c r="D73" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C74" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C75" t="s">
-        <v>115</v>
-      </c>
-      <c r="D75" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C76" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C77" t="s">
-        <v>103</v>
-      </c>
-      <c r="D77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C78" t="s">
-        <v>118</v>
-      </c>
-      <c r="D78" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C79" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C80" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C81" t="s">
-        <v>124</v>
-      </c>
-      <c r="D81" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C82" t="s">
-        <v>125</v>
-      </c>
-      <c r="D82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C83" t="s">
-        <v>126</v>
-      </c>
-      <c r="D83" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C84" t="s">
-        <v>128</v>
-      </c>
-      <c r="D84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C85" t="s">
-        <v>130</v>
-      </c>
-      <c r="D85" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C86" t="s">
-        <v>132</v>
-      </c>
-      <c r="D86" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C87" t="s">
-        <v>134</v>
-      </c>
-      <c r="D87" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C88" t="s">
-        <v>136</v>
-      </c>
-      <c r="D88" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C89" t="s">
-        <v>138</v>
-      </c>
-      <c r="D89" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C90" t="s">
-        <v>140</v>
-      </c>
-      <c r="D90" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C91" t="s">
-        <v>142</v>
-      </c>
-      <c r="D91" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C92" t="s">
-        <v>144</v>
-      </c>
-      <c r="D92" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C93" t="s">
-        <v>146</v>
-      </c>
-      <c r="D93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C94" t="s">
-        <v>147</v>
-      </c>
-      <c r="D94" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C95" t="s">
-        <v>149</v>
-      </c>
-      <c r="D95" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C96" t="s">
-        <v>151</v>
-      </c>
-      <c r="D96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C97" t="s">
-        <v>152</v>
-      </c>
-      <c r="D97" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C98" t="s">
-        <v>153</v>
-      </c>
-      <c r="D98" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C99" t="s">
-        <v>154</v>
-      </c>
-      <c r="D99" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C100" t="s">
-        <v>156</v>
-      </c>
-      <c r="D100" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2">
-        <v>44764</v>
-      </c>
-      <c r="C101" t="s">
-        <v>158</v>
-      </c>
-      <c r="D101" t="s">
-        <v>159</v>
-      </c>
+      <c r="B69" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D69">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>